--- a/results/python/python_overall.xlsx
+++ b/results/python/python_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85A13F-F177-4117-AEE2-34FDA5E905F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18072A71-4F6C-4C9D-9921-55175C9B7020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="795" windowWidth="24000" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,11 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -444,7 +443,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,13 +511,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>17.749833935018049</v>
+        <v>17.747660582255083</v>
       </c>
       <c r="F3" s="1">
-        <v>29.036514326488128</v>
+        <v>29.034117260006202</v>
       </c>
       <c r="G3" s="1">
-        <v>0.15604490367643917</v>
+        <v>0.15603427483907159</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -544,19 +543,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1295</v>
+        <v>397</v>
       </c>
       <c r="D4" s="1">
         <v>17</v>
       </c>
       <c r="E4" s="1">
-        <v>77.332389891696749</v>
+        <v>77.297221580406656</v>
       </c>
       <c r="F4" s="1">
-        <v>27.760053644251826</v>
+        <v>26.978107509501992</v>
       </c>
       <c r="G4" s="1">
-        <v>0.14918508634552002</v>
+        <v>0.14498492942212343</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -588,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>10.228447653429603</v>
+        <v>10.22851201478743</v>
       </c>
       <c r="F5" s="1">
-        <v>7.3360333748465685</v>
+        <v>7.3361295370529866</v>
       </c>
       <c r="G5" s="1">
-        <v>3.9424519364598599E-2</v>
+        <v>3.9425605476090586E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>7</v>
@@ -677,7 +676,6 @@
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="L9" s="2" t="s">
         <v>1</v>
       </c>

--- a/results/python/python_overall.xlsx
+++ b/results/python/python_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18072A71-4F6C-4C9D-9921-55175C9B7020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FAF9DF-B825-4B3D-80EB-1D2B5A6FB9C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="795" windowWidth="24000" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="285" windowWidth="24000" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G6"/>
+      <selection activeCell="L31" sqref="L31:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,10 +514,10 @@
         <v>17.747660582255083</v>
       </c>
       <c r="F3" s="1">
-        <v>29.034117260006202</v>
+        <v>29.034536546428789</v>
       </c>
       <c r="G3" s="1">
-        <v>0.15603427483907159</v>
+        <v>0.1560365281554825</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -532,10 +532,10 @@
         <v>22.714285714285715</v>
       </c>
       <c r="O3" s="1">
-        <v>17.523162513935546</v>
+        <v>18.927178744812849</v>
       </c>
       <c r="P3" s="1">
-        <v>6.6231328850346936</v>
+        <v>7.1538011398346351</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -552,10 +552,10 @@
         <v>77.297221580406656</v>
       </c>
       <c r="F4" s="1">
-        <v>26.978107509501992</v>
+        <v>26.978497104752446</v>
       </c>
       <c r="G4" s="1">
-        <v>0.14498492942212343</v>
+        <v>0.14498702317313508</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -570,10 +570,10 @@
         <v>43.142857142857146</v>
       </c>
       <c r="O4" s="1">
-        <v>33.142241373590082</v>
+        <v>35.797712084380343</v>
       </c>
       <c r="P4" s="1">
-        <v>12.526589795113582</v>
+        <v>13.530263382908862</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>10.22851201478743</v>
       </c>
       <c r="F5" s="1">
-        <v>7.3361295370529866</v>
+        <v>7.3362354792960955</v>
       </c>
       <c r="G5" s="1">
-        <v>3.9425605476090586E-2</v>
+        <v>3.9426174827689273E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>7</v>
@@ -608,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="O5" s="1">
-        <v>2.6726124191242437</v>
+        <v>2.8867513459481291</v>
       </c>
       <c r="P5" s="1">
-        <v>1.0101525445522106</v>
+        <v>1.091089451179962</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -706,10 +706,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>4.2426406871192848</v>
       </c>
       <c r="G10" s="1">
-        <v>2.1213203435596424</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>
@@ -724,10 +724,10 @@
         <v>10.785831960461286</v>
       </c>
       <c r="O10" s="1">
-        <v>12.834144003961915</v>
+        <v>12.844728866795323</v>
       </c>
       <c r="P10" s="1">
-        <v>0.52092183578955342</v>
+        <v>0.52135146211890249</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -744,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>11</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G11" s="1">
-        <v>7.7781745930520225</v>
+        <v>10.999999999999998</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -762,10 +762,10 @@
         <v>43.184514003294893</v>
       </c>
       <c r="O11" s="1">
-        <v>18.925908361314516</v>
+        <v>18.941517360554386</v>
       </c>
       <c r="P11" s="1">
-        <v>0.76817892369895147</v>
+        <v>0.76881247343443526</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>8.1993410214168048</v>
       </c>
       <c r="O12" s="1">
-        <v>3.2730942834696939</v>
+        <v>3.2757937431314099</v>
       </c>
       <c r="P12" s="1">
-        <v>0.13285079880130551</v>
+        <v>0.1329603664890443</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
         <v>10.379232992536991</v>
       </c>
       <c r="F17" s="1">
-        <v>13.626797992105423</v>
+        <v>13.627091923318281</v>
       </c>
       <c r="G17" s="1">
-        <v>8.9500968392268287E-2</v>
+        <v>8.9502898935907862E-2</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>5</v>
@@ -916,10 +916,10 @@
         <v>4.4391891891891895</v>
       </c>
       <c r="O17" s="1">
-        <v>3.8942548663649958</v>
+        <v>3.9074781807031815</v>
       </c>
       <c r="P17" s="1">
-        <v>0.32010577816968244</v>
+        <v>0.32119272791269149</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -936,10 +936,10 @@
         <v>74.649971959794655</v>
       </c>
       <c r="F18" s="1">
-        <v>21.591045362122856</v>
+        <v>21.591511082841244</v>
       </c>
       <c r="G18" s="1">
-        <v>0.14181023815212646</v>
+        <v>0.14181329701124509</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>6</v>
@@ -954,10 +954,10 @@
         <v>53.175675675675677</v>
       </c>
       <c r="O18" s="1">
-        <v>16.702773768763361</v>
+        <v>16.759489632373523</v>
       </c>
       <c r="P18" s="1">
-        <v>1.3729595463875914</v>
+        <v>1.3776215616584211</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>9.1760493507613994</v>
       </c>
       <c r="F19" s="1">
-        <v>3.8571206699815552</v>
+        <v>3.8572038684084582</v>
       </c>
       <c r="G19" s="1">
-        <v>2.5333613617020082E-2</v>
+        <v>2.5334160065259854E-2</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>7</v>
@@ -992,10 +992,10 @@
         <v>6.756756756756757</v>
       </c>
       <c r="O19" s="1">
-        <v>2.7841773534434404</v>
+        <v>2.7936312935632373</v>
       </c>
       <c r="P19" s="1">
-        <v>0.22885796869230571</v>
+        <v>0.22963507778317577</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>9.4623376623376618</v>
       </c>
       <c r="F24" s="1">
-        <v>12.705628561103831</v>
+        <v>12.722161591599541</v>
       </c>
       <c r="G24" s="1">
-        <v>0.64753879116162472</v>
+        <v>0.64838139241743387</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>5</v>
@@ -1108,10 +1108,10 @@
         <v>5.0473559589581685</v>
       </c>
       <c r="O24" s="1">
-        <v>5.4938552632088893</v>
+        <v>5.4960246039699223</v>
       </c>
       <c r="P24" s="1">
-        <v>0.15434369966651265</v>
+        <v>0.15440464486125366</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1128,10 +1128,10 @@
         <v>40.703896103896106</v>
       </c>
       <c r="F25" s="1">
-        <v>16.544017960426658</v>
+        <v>16.565545644172957</v>
       </c>
       <c r="G25" s="1">
-        <v>0.84316122886250799</v>
+        <v>0.84425838121845398</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -1146,10 +1146,10 @@
         <v>45.722178374112076</v>
       </c>
       <c r="O25" s="1">
-        <v>18.158779803945603</v>
+        <v>18.16595010227201</v>
       </c>
       <c r="P25" s="1">
-        <v>0.51015054494418899</v>
+        <v>0.51035198643079338</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>8.0545454545454547</v>
       </c>
       <c r="F26" s="1">
-        <v>4.5947046159327964</v>
+        <v>4.6006834143187767</v>
       </c>
       <c r="G26" s="1">
-        <v>0.23416783029956437</v>
+        <v>0.23447253808012306</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>7</v>
@@ -1184,10 +1184,10 @@
         <v>6.4656669297553275</v>
       </c>
       <c r="O26" s="1">
-        <v>5.2956219733665071</v>
+        <v>5.2977130383930611</v>
       </c>
       <c r="P26" s="1">
-        <v>0.14877455780064802</v>
+        <v>0.14883330392645205</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>15.227255709472107</v>
       </c>
       <c r="F31" s="1">
-        <v>22.237571087493809</v>
+        <v>22.241735036802371</v>
       </c>
       <c r="G31" s="1">
-        <v>0.43027925242772791</v>
+        <v>0.43035982152354263</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>5</v>
@@ -1300,10 +1300,10 @@
         <v>25.229363579080026</v>
       </c>
       <c r="O31" s="1">
-        <v>43.969525389581051</v>
+        <v>43.976453542998279</v>
       </c>
       <c r="P31" s="1">
-        <v>0.78045580751321231</v>
+        <v>0.78057878172141471</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
         <v>42.291276675402472</v>
       </c>
       <c r="F32" s="1">
-        <v>18.009122306203921</v>
+        <v>18.01249448530027</v>
       </c>
       <c r="G32" s="1">
-        <v>0.34846214329364755</v>
+        <v>0.34852739226777879</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>6</v>
@@ -1338,10 +1338,10 @@
         <v>40.380907372400756</v>
       </c>
       <c r="O32" s="1">
-        <v>27.350501487684664</v>
+        <v>27.354811028637542</v>
       </c>
       <c r="P32" s="1">
-        <v>0.48546936850767852</v>
+        <v>0.48554586253927401</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -1358,10 +1358,10 @@
         <v>8.601272931486335</v>
       </c>
       <c r="F33" s="1">
-        <v>7.2066973424939667</v>
+        <v>7.2080467849442353</v>
       </c>
       <c r="G33" s="1">
-        <v>0.13944384181171246</v>
+        <v>0.13946995244611635</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>7</v>
@@ -1376,10 +1376,10 @@
         <v>9.2340894770006301</v>
       </c>
       <c r="O33" s="1">
-        <v>3.5478132778340687</v>
+        <v>3.5483722967105913</v>
       </c>
       <c r="P33" s="1">
-        <v>6.2973421980902292E-2</v>
+        <v>6.2983344524410012E-2</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
